--- a/data/trans_dic/P23_7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>4,45%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>10,29%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,47</t>
+          <t>1,44; 8,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,96</t>
+          <t>1,91; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 12,24</t>
+          <t>0,77; 8,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 18,92</t>
+          <t>1,24; 10,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 11,08</t>
+          <t>3,67; 18,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,38</t>
+          <t>3,53; 13,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 12,72</t>
+          <t>2,15; 10,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 20,55</t>
+          <t>1,78; 7,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,88</t>
+          <t>4,02; 12,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,85</t>
+          <t>2,02; 8,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,71</t>
+          <t>6,23; 20,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 16,95</t>
+          <t>1,27; 7,26</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 7,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 6,85</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 8,68</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 7,86</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 16,3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 9,38</t>
         </is>
       </c>
     </row>
@@ -801,57 +910,87 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>8,53%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>3,56%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>6,12%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,19</t>
+          <t>1,28; 7,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 13,91</t>
+          <t>1,12; 16,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,19</t>
+          <t>1,05; 6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 15,69</t>
+          <t>3,49; 25,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,95</t>
+          <t>4,16; 15,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,38</t>
+          <t>7,12; 21,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,87</t>
+          <t>1,33; 6,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,47</t>
+          <t>1,38; 6,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,86</t>
+          <t>1,72; 6,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,29</t>
+          <t>2,88; 11,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,1</t>
+          <t>1,41; 7,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,83</t>
+          <t>3,77; 11,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 5,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 9,83</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 5,42</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 17,96</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 10,09</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 14,85</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,74%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>9,39%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>10,52%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,32</t>
+          <t>2,86; 8,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 12,71</t>
+          <t>2,77; 12,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,67</t>
+          <t>3,52; 9,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 17,16</t>
+          <t>4,27; 10,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,72</t>
+          <t>7,74; 17,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,23</t>
+          <t>6,74; 18,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,47</t>
+          <t>3,57; 9,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,77</t>
+          <t>1,51; 5,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,56</t>
+          <t>2,68; 7,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,94</t>
+          <t>3,88; 10,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,31</t>
+          <t>6,06; 13,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 14,01</t>
+          <t>3,03; 9,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 7,41</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 7,24</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 9,18</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,83; 14,45</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 12,35</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>12,49%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>9,23%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,89%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>17,32%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,68%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>14,77%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,93</t>
+          <t>4,09; 13,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 12,27</t>
+          <t>4,52; 13,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,37</t>
+          <t>4,04; 9,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,98</t>
+          <t>3,82; 10,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,84</t>
+          <t>8,43; 17,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,87</t>
+          <t>9,54; 19,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 12,43</t>
+          <t>6,64; 13,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 22,9</t>
+          <t>7,05; 13,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,49</t>
+          <t>6,66; 12,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,7</t>
+          <t>8,78; 16,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,81</t>
+          <t>12,54; 22,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,66</t>
+          <t>7,12; 14,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 12,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 11,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 10,12</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 11,6</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 18,36</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,47; 15,92</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>12,33%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>15,22%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,36</t>
+          <t>4,21; 11,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 15,42</t>
+          <t>4,49; 15,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,9</t>
+          <t>4,06; 10,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,69; 25,41</t>
+          <t>3,07; 9,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,36</t>
+          <t>12,97; 25,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,49</t>
+          <t>11,14; 21,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,48</t>
+          <t>5,3; 12,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,89</t>
+          <t>4,1; 10,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,32</t>
+          <t>5,15; 12,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,58</t>
+          <t>6,64; 16,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,63</t>
+          <t>8,38; 17,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,11</t>
+          <t>11,65; 21,57</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 10,81</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 10,99</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 9,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 11,63</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,78; 19,42</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 20,19</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>8,15%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,83%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>12,66%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,06%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>10,79%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,89</t>
+          <t>2,4; 9,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,16</t>
+          <t>6,54; 15,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,84</t>
+          <t>3,27; 10,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,02</t>
+          <t>1,94; 9,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 15,57</t>
+          <t>3,99; 14,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,76</t>
+          <t>5,58; 17,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,76</t>
+          <t>6,25; 16,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 20,44</t>
+          <t>3,59; 9,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,69</t>
+          <t>4,95; 12,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,08</t>
+          <t>5,5; 16,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,93</t>
+          <t>7,12; 21,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,41</t>
+          <t>10,25; 22,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 11,78</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 10,93</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 9,94</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 11,37</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 15,66</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 18,16</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>11,34%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>11,33%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>6,08%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>11,34%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,65</t>
+          <t>4,06; 6,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,5</t>
+          <t>5,12; 8,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,82</t>
+          <t>4,05; 6,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,59</t>
+          <t>4,94; 9,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,03</t>
+          <t>9,34; 13,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,78</t>
+          <t>9,79; 14,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,12</t>
+          <t>6,12; 9,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,88</t>
+          <t>4,5; 6,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,37</t>
+          <t>5,68; 8,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,19</t>
+          <t>7,01; 10,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,07</t>
+          <t>9,49; 13,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,98</t>
+          <t>8,48; 12,54</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 7,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 7,22</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 6,99</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 9,18</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9,81; 13,02</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 12,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,55%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18381</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22850</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16138</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20861</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24675</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19740</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38220</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22668</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>43056</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>42591</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>54358</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>43529</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8104</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7242; 41648</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9996; 48305</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3902; 43568</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5769; 50651</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1528; 7595</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1531; 5729</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10012; 51194</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9182; 38829</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20556; 63939</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9662; 42343</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2310; 7614</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>491; 2799</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22206; 71754</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23504; 71220</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31325; 88339</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>20233; 73980</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4759; 12834</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2373; 7688</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19091</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26435</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17021</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56313</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6152</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18694</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16751</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19449</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30817</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>37786</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43186</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>36470</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>87130</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5920</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9326</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7323; 41329</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6193; 89315</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6265; 38341</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20228; 150623</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2076; 7591</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3487; 10549</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6804; 35794</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7035; 33065</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8913; 34672</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14553; 55916</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>659; 3306</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1736; 5309</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20807; 62102</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20117; 104471</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21032; 60252</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>46112; 194852</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3403; 9757</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5977; 14112</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33593</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37658</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39116</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48043</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6941</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6913</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43327</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21510</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33696</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45709</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5063</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>76921</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>59168</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>72812</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>93752</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12005</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19256; 58849</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18832; 82171</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23813; 60822</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29007; 73792</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4659; 10535</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4075; 11077</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25352; 68230</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10840; 38391</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19083; 52427</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27847; 72226</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3267; 7532</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1661; 4950</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>51825; 105865</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>37980; 103496</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>52839; 100431</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>69679; 128244</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8933; 16495</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6737; 14238</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48025</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>45827</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>41137</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42243</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7244</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7852</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63795</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68360</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59658</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>78657</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9002</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5713</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>111821</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>114187</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>100795</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>120901</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>16246</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13565</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26259; 88349</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28986; 83827</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25640; 58803</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24744; 65730</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4888; 10201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5360; 11002</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44991; 88728</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47111; 93310</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>43645; 82430</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>58095; 106031</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6519; 11827</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3792; 7845</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>81424; 160980</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>87287; 152844</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>78960; 130544</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>91340; 151876</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>12496; 20191</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>10362; 17424</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35743</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39803</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32587</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27705</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8096</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7282</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42557</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>32031</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40957</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>56331</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7421</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>78300</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>71834</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>73545</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>84036</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14084</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14702</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20635; 57931</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22476; 77608</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19931; 49337</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14850; 45087</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5704; 11317</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5027; 9783</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26847; 65654</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20395; 51618</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26254; 62526</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>33971; 84263</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4068; 8504</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5407; 10012</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>55124; 107741</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>49117; 109655</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>53176; 97839</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>57019; 115791</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>10903; 17968</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>11434; 18484</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>24475</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>53406</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>33015</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27543</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>72593</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>38484</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>53774</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>71207</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7920</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10068</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>97068</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>91890</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>86789</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>98750</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>11527</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>14420</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12504; 49398</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>33047; 77270</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17129; 55772</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10883; 55518</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1769; 6278</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2439; 7466</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>44021; 118759</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23037; 62259</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>33291; 85640</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>38778; 113938</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4453; 13635</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6528; 14315</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>63139; 144415</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>64683; 125261</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>59611; 118876</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>63818; 143870</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>7236; 16733</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>10499; 19505</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>179308</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>225979</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>179015</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>222708</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33800</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35586</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>265642</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>196876</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>245754</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>305390</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34086</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>30740</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>444950</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>422855</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>424770</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>528098</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>67885</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>66326</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>138081; 234551</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>174338; 299404</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>138749; 220775</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>168852; 333298</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>27829; 41240</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29173; 42872</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>218929; 329807</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>159701; 240859</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>203299; 294320</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>250665; 370137</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>28544; 41037</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25662; 37966</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>380583; 530853</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>354884; 501654</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>363998; 489742</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>448755; 642154</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>58725; 77946</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>57539; 76094</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
